--- a/tables/B18107_2014.xlsx
+++ b/tables/B18107_2014.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\DOHMH\Programming\BESP\ACS_data_tool_for_EPHT\tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCC803C-A30B-4A24-A99F-E800C14D6FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14355" windowHeight="6720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="out" sheetId="1" r:id="rId1"/>
@@ -67,8 +73,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -94,21 +100,19 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="MS Sans Serif"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -120,29 +124,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -172,37 +163,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
-    <cellStyle name="Normal 2 3" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Normal 4" xfId="5"/>
-    <cellStyle name="Normal 5" xfId="6"/>
-    <cellStyle name="Normal 6" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -210,14 +202,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -255,7 +250,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -327,7 +322,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -500,11 +495,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -513,7 +508,7 @@
     <col min="3" max="3" width="71.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,322 +519,322 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4">
         <v>6</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4">
         <v>7</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4">
         <v>8</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4">
         <v>9</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4">
         <v>10</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4">
         <v>11</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="2">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4">
         <v>12</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="2">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4">
         <v>13</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="2">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="4">
         <v>14</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="2">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="4">
         <v>15</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="2">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="4">
         <v>16</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="2">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="4">
         <v>17</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="2">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="4">
         <v>18</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="2">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="4">
         <v>19</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="2">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="4">
         <v>20</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="2">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="4">
         <v>21</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="2">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4">
         <v>22</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="2">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="4">
         <v>23</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="2">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="4">
         <v>24</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="2">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="4">
         <v>25</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="2">
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="4">
         <v>26</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="2">
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="4">
         <v>27</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>11</v>
       </c>
     </row>
